--- a/LEDMatrix/table.xlsx
+++ b/LEDMatrix/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proyr\华为云盘\深圳大学\课程\单片机原理\STC89C52RC\Libraries\LEDMatrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\proyr\Documents\Keil\Learn\LEDMatrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC30BB-AFEF-47A7-9E5C-AB486AB3BC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B91011-D814-4A70-9E15-0F9AFE574CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25420" windowHeight="16420" xr2:uid="{DB7CAF6C-F49D-44D2-BCAA-C5C7342B1467}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="18900" windowHeight="11770" xr2:uid="{DB7CAF6C-F49D-44D2-BCAA-C5C7342B1467}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21839E9-F7E3-4649-8816-9539F6642C9F}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1640625" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.3"/>
